--- a/Media/Journal_travail_bord.xlsx
+++ b/Media/Journal_travail_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFABD8F-3B14-4EDB-A05C-7AB6C7128DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD6853-0495-4EF8-9AEF-07AA9FD31ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="1950" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
   <si>
     <t>Projet</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>CJR</t>
+  </si>
+  <si>
+    <t>Progc</t>
+  </si>
+  <si>
+    <t>Prog c</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,16 +203,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -225,9 +231,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -253,6 +256,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -274,19 +280,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:G101" totalsRowCount="1" headerRowDxfId="15">
-  <autoFilter ref="A1:G100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:G44" totalsRowCount="1" headerRowDxfId="14">
+  <autoFilter ref="A1:G43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Projet" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Projet" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="7" totalsRowDxfId="0">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -296,7 +301,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
   <autoFilter ref="A1:B100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -566,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,76 +1473,148 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6">
+        <v>43922</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="F38" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>7.0833333333333248E-2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>43923</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="F39" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>0.24652777777777768</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>43924</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="F40" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>3.8888888888888917E-2</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43924</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.66111111111111109</v>
+      </c>
       <c r="F41" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6">
+        <v>43929</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="F42" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>43930</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="F43" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>0.1069444444444444</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1545,695 +1622,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8">
-        <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7">
-        <f>SUM(Tableau2[Temps])</f>
-        <v>1.384722222222222</v>
-      </c>
-      <c r="G101" s="4"/>
+      <c r="F44" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
